--- a/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
+++ b/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:11:52+00:00</t>
+    <t>2025-11-19T14:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
+++ b/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:13:21+00:00</t>
+    <t>2025-12-10T10:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
+++ b/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:19:35+00:00</t>
+    <t>2026-01-15T10:23:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
+++ b/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T10:23:10+00:00</t>
+    <t>2026-01-15T11:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
+++ b/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T11:00:10+00:00</t>
+    <t>2026-01-15T13:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
+++ b/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/EyeColorVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tde/ValueSet/EyeColorVS</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:06:15+00:00</t>
+    <t>2026-01-15T15:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
+++ b/ANS-170-SFE/ig/ValueSet-EyeColorVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:25:18+00:00</t>
+    <t>2026-01-19T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
